--- a/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ COLLEGETOWN 20250221.xlsx
+++ b/WorkBot/main/backend/orders/OrderFiles/Performance Food/Performance Food _ COLLEGETOWN 20250221.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,6 +502,222 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10198</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Capers</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>$62.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$62.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A0432</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>PKT Hot Sauce - Cholula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>$16.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>$16.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>P0998</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>PKT Sugar</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>$18.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>$18.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FV234</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Poland Spring - Sport Top</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>$11.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>$55.45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AT104</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Simply - Orange</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>$44.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>$44.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>B2402</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sparkling Ice - Watermelon Strawberry</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>$12.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>$12.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>99458</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sparkling Ice - Kiwi Strawberry</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>$11.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>$11.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>99402</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sparkling Ice - Black Raspberry</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>$12.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>$12.25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
